--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại CẦN THƠ.xlsx
@@ -1187,7 +1187,7 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>10000000</v>
+        <v>16000000</v>
       </c>
       <c r="J19" t="n">
         <v>3000000</v>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lâm Minh Ngọc</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,10 +495,8 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0766931276</t>
-        </is>
+      <c r="F2" t="n">
+        <v/>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -507,7 +505,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>10000000</v>
+        <v>5000000</v>
       </c>
       <c r="J2" t="n">
         <v>10000000</v>
@@ -520,11 +518,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>353</v>
+        <v>375</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Lê Thị Kiều</t>
+          <t>Lâm Minh Ngọc</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -537,7 +535,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>0907746583</t>
+          <t>0766931276</t>
         </is>
       </c>
       <c r="G3" t="n">
@@ -547,10 +545,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>7500000</v>
+        <v>10000000</v>
       </c>
       <c r="J3" t="n">
-        <v>10500000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="4">
@@ -560,11 +558,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nguyễn Ngọc My</t>
+          <t>Lê Thị Kiều</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,7 +575,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0325266431</t>
+          <t>0907746583</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -587,10 +585,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>32000000</v>
+        <v>7500000</v>
       </c>
       <c r="J4" t="n">
-        <v>3000000</v>
+        <v>10500000</v>
       </c>
     </row>
     <row r="5">
@@ -600,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Nguyễn Ngọc My</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -617,7 +615,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0787996460</t>
+          <t>0325266431</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -627,10 +625,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>1500000</v>
+        <v>32000000</v>
       </c>
       <c r="J5" t="n">
-        <v>300000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="6">
@@ -640,11 +638,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -657,7 +655,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -667,10 +665,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>9500000</v>
+        <v>1500000</v>
       </c>
       <c r="J6" t="n">
-        <v>8500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="7">
@@ -680,11 +678,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Hoàng Thị Thu Vân</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -697,7 +695,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0761880789</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -707,10 +705,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>1000000</v>
+        <v>9500000</v>
       </c>
       <c r="J7" t="n">
-        <v>500000</v>
+        <v>8500000</v>
       </c>
     </row>
     <row r="8">
@@ -720,11 +718,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Nho</t>
+          <t>Hoàng Thị Thu Vân</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -737,7 +735,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0971073757</t>
+          <t>0761880789</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -747,10 +745,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>14730000</v>
+        <v>1000000</v>
       </c>
       <c r="J8" t="n">
-        <v>3000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="9">
@@ -760,11 +758,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Phạm Trần Thuý Vi</t>
+          <t>Nguyễn Thị Hồng Nho</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -777,7 +775,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0974370797</t>
+          <t>0971073757</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -787,10 +785,10 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>10000000</v>
+        <v>14730000</v>
       </c>
       <c r="J9" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="10">
@@ -800,11 +798,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Trần Thị Lan Trinh</t>
+          <t>Phạm Trần Thuý Vi</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -817,7 +815,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0918667208</t>
+          <t>0974370797</t>
         </is>
       </c>
       <c r="G10" t="n">
@@ -840,11 +838,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nguyễn Hữu Dân</t>
+          <t>Trần Thị Lan Trinh</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -857,7 +855,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>0868586369</t>
+          <t>0918667208</t>
         </is>
       </c>
       <c r="G11" t="n">
@@ -867,10 +865,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="J11" t="n">
-        <v>500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="12">
@@ -880,11 +878,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>226</v>
+        <v>272</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nguyễn Đoàn Tuyết Nhung</t>
+          <t>Nguyễn Hữu Dân</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -897,7 +895,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0968119924</t>
+          <t>0868586369</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -907,10 +905,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>26000000</v>
+        <v>2000000</v>
       </c>
       <c r="J12" t="n">
-        <v>9000000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="13">
@@ -920,11 +918,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Trần Thị Phượng Hằng</t>
+          <t>Nguyễn Đoàn Tuyết Nhung</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -937,7 +935,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0797571132</t>
+          <t>0968119924</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -947,10 +945,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>24300000</v>
+        <v>26000000</v>
       </c>
       <c r="J13" t="n">
-        <v>3000000</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="14">
@@ -960,11 +958,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Trần Thị Phượng Hằng</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -977,7 +975,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0797571132</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -987,10 +985,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>4000000</v>
+        <v>24300000</v>
       </c>
       <c r="J14" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="15">
@@ -1000,11 +998,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Tuyết Hiếu</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1017,7 +1015,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>0868748958</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G15" t="n">
@@ -1027,10 +1025,10 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>10000000</v>
+        <v>4000000</v>
       </c>
       <c r="J15" t="n">
-        <v>18000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="16">
@@ -1040,11 +1038,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Lâm Nhật Thái</t>
+          <t>Nguyễn Thị Tuyết Hiếu</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1057,7 +1055,7 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>0946327273</t>
+          <t>0868748958</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1067,10 +1065,10 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>8000000</v>
+        <v>10000000</v>
       </c>
       <c r="J16" t="n">
-        <v>5000000</v>
+        <v>18000000</v>
       </c>
     </row>
     <row r="17">
@@ -1080,11 +1078,11 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Phan Mỹ Điền</t>
+          <t>Lâm Nhật Thái</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1097,7 +1095,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0847413423</t>
+          <t>0946327273</t>
         </is>
       </c>
       <c r="G17" t="n">
@@ -1107,10 +1105,10 @@
         <v/>
       </c>
       <c r="I17" t="n">
-        <v>16000000</v>
+        <v>8000000</v>
       </c>
       <c r="J17" t="n">
-        <v>4000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="18">
@@ -1120,11 +1118,11 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Phan Mỹ Điền</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1137,7 +1135,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0847413423</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -1147,10 +1145,10 @@
         <v/>
       </c>
       <c r="I18" t="n">
-        <v>15000000</v>
+        <v>16000000</v>
       </c>
       <c r="J18" t="n">
-        <v>5000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="19">
@@ -1160,11 +1158,11 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Yến Linh</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1177,7 +1175,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>0777004897</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -1187,10 +1185,10 @@
         <v/>
       </c>
       <c r="I19" t="n">
-        <v>16000000</v>
+        <v>15000000</v>
       </c>
       <c r="J19" t="n">
-        <v>3000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="20">
@@ -1200,11 +1198,11 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Trần Nguyễn Yến Linh</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1217,7 +1215,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0777004897</t>
         </is>
       </c>
       <c r="G20" t="n">
@@ -1227,10 +1225,10 @@
         <v/>
       </c>
       <c r="I20" t="n">
-        <v>10000000</v>
+        <v>16000000</v>
       </c>
       <c r="J20" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="21">
@@ -1240,11 +1238,11 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1255,8 +1253,10 @@
       <c r="E21" t="n">
         <v/>
       </c>
-      <c r="F21" t="n">
-        <v/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G21" t="n">
         <v/>
@@ -1265,10 +1265,10 @@
         <v/>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="J21" t="n">
-        <v>3000000</v>
+        <v>10000000</v>
       </c>
     </row>
     <row r="22">
@@ -1278,11 +1278,11 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Trần Thị Hồng Cẩm</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1303,10 +1303,10 @@
         <v/>
       </c>
       <c r="I22" t="n">
-        <v>22500000</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>5000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="23">
@@ -1316,11 +1316,11 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Thuỳ Nhiên</t>
+          <t>Trần Thị Hồng Cẩm</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1341,10 +1341,10 @@
         <v/>
       </c>
       <c r="I23" t="n">
-        <v>500000</v>
+        <v>22500000</v>
       </c>
       <c r="J23" t="n">
-        <v>1500000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="24">
@@ -1354,11 +1354,11 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>126</v>
+        <v>190</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>trần kiều trinh</t>
+          <t>Thuỳ Nhiên</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1379,10 +1379,10 @@
         <v/>
       </c>
       <c r="I24" t="n">
-        <v>15000000</v>
+        <v>500000</v>
       </c>
       <c r="J24" t="n">
-        <v>4000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="25">
@@ -1392,11 +1392,11 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>lê hoàng phúc</t>
+          <t>trần kiều trinh</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1407,10 +1407,8 @@
       <c r="E25" t="n">
         <v/>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>TN-89</t>
-        </is>
+      <c r="F25" t="n">
+        <v/>
       </c>
       <c r="G25" t="n">
         <v/>
@@ -1419,10 +1417,10 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>3000000</v>
+        <v>15000000</v>
       </c>
       <c r="J25" t="n">
-        <v>27000000</v>
+        <v>4000000</v>
       </c>
     </row>
     <row r="26">
@@ -1432,11 +1430,11 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>anh tiến</t>
+          <t>lê hoàng phúc</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1447,8 +1445,10 @@
       <c r="E26" t="n">
         <v/>
       </c>
-      <c r="F26" t="n">
-        <v/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>TN-89</t>
+        </is>
       </c>
       <c r="G26" t="n">
         <v/>
@@ -1457,10 +1457,10 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v>10000000</v>
+        <v>3000000</v>
       </c>
       <c r="J26" t="n">
-        <v>3000000</v>
+        <v>27000000</v>
       </c>
     </row>
     <row r="27">
@@ -1470,11 +1470,11 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>anh tiến</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1495,10 +1495,10 @@
         <v/>
       </c>
       <c r="I27" t="n">
-        <v>2000000</v>
+        <v>10000000</v>
       </c>
       <c r="J27" t="n">
-        <v>23000000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="28">
@@ -1508,11 +1508,11 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1521,12 +1521,10 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F28" t="n">
+        <v/>
       </c>
       <c r="G28" t="n">
         <v/>
@@ -1535,10 +1533,10 @@
         <v/>
       </c>
       <c r="I28" t="n">
-        <v>25000000</v>
+        <v>2000000</v>
       </c>
       <c r="J28" t="n">
-        <v>24000000</v>
+        <v>23000000</v>
       </c>
     </row>
     <row r="29">
@@ -1548,11 +1546,11 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Mỹ Nhung</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1561,10 +1559,12 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v/>
-      </c>
-      <c r="F29" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G29" t="n">
         <v/>
@@ -1573,10 +1573,10 @@
         <v/>
       </c>
       <c r="I29" t="n">
-        <v>4700000</v>
+        <v>25000000</v>
       </c>
       <c r="J29" t="n">
-        <v>20000000</v>
+        <v>24000000</v>
       </c>
     </row>
     <row r="30">
@@ -1586,11 +1586,11 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>thanh thảo</t>
+          <t>Mỹ Nhung</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1611,10 +1611,10 @@
         <v/>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>4700000</v>
       </c>
       <c r="J30" t="n">
-        <v>5000000</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="31">
@@ -1624,11 +1624,11 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>thanh thảo</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1652,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>21000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="32">
@@ -1662,11 +1662,11 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1677,10 +1677,8 @@
       <c r="E32" t="n">
         <v/>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F32" t="n">
+        <v/>
       </c>
       <c r="G32" t="n">
         <v/>
@@ -1689,10 +1687,10 @@
         <v/>
       </c>
       <c r="I32" t="n">
-        <v>10000000</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>28000000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="33">
@@ -1702,11 +1700,11 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1717,8 +1715,10 @@
       <c r="E33" t="n">
         <v/>
       </c>
-      <c r="F33" t="n">
-        <v/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G33" t="n">
         <v/>
@@ -1727,10 +1727,10 @@
         <v/>
       </c>
       <c r="I33" t="n">
-        <v>1200000</v>
+        <v>10000000</v>
       </c>
       <c r="J33" t="n">
-        <v>300000</v>
+        <v>28000000</v>
       </c>
     </row>
     <row r="34">
@@ -1740,11 +1740,11 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1765,10 +1765,10 @@
         <v/>
       </c>
       <c r="I34" t="n">
-        <v>4300000</v>
+        <v>1200000</v>
       </c>
       <c r="J34" t="n">
-        <v>29500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="35">
@@ -1778,11 +1778,11 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>kim quyên</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1803,10 +1803,10 @@
         <v/>
       </c>
       <c r="I35" t="n">
-        <v>4000000</v>
+        <v>4300000</v>
       </c>
       <c r="J35" t="n">
-        <v>6000000</v>
+        <v>29500000</v>
       </c>
     </row>
     <row r="36">
@@ -1816,11 +1816,11 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>kim quyên</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1831,10 +1831,8 @@
       <c r="E36" t="n">
         <v/>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F36" t="n">
+        <v/>
       </c>
       <c r="G36" t="n">
         <v/>
@@ -1843,10 +1841,10 @@
         <v/>
       </c>
       <c r="I36" t="n">
-        <v>13000000</v>
+        <v>4000000</v>
       </c>
       <c r="J36" t="n">
-        <v>12000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="37">
@@ -1856,11 +1854,11 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>em tiên</t>
+          <t>Nguyễn Thi Thức ( My )</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1871,8 +1869,10 @@
       <c r="E37" t="n">
         <v/>
       </c>
-      <c r="F37" t="n">
-        <v/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
       </c>
       <c r="G37" t="n">
         <v/>
@@ -1881,10 +1881,10 @@
         <v/>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>13000000</v>
       </c>
       <c r="J37" t="n">
-        <v>2000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="38">
@@ -1894,11 +1894,11 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>em Ái Mỹ</t>
+          <t>em tiên</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1922,7 +1922,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="39">
@@ -1932,11 +1932,11 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Trần Nguyễn Sang Sang</t>
+          <t>em Ái Mỹ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1947,10 +1947,8 @@
       <c r="E39" t="n">
         <v/>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>0868277767</t>
-        </is>
+      <c r="F39" t="n">
+        <v/>
       </c>
       <c r="G39" t="n">
         <v/>
@@ -1959,10 +1957,10 @@
         <v/>
       </c>
       <c r="I39" t="n">
-        <v>3000000</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>12000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="40">
@@ -1972,11 +1970,11 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>em Trúc</t>
+          <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1987,8 +1985,10 @@
       <c r="E40" t="n">
         <v/>
       </c>
-      <c r="F40" t="n">
-        <v/>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0868277767</t>
+        </is>
       </c>
       <c r="G40" t="n">
         <v/>
@@ -1997,10 +1997,10 @@
         <v/>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>3000000</v>
       </c>
       <c r="J40" t="n">
-        <v>1500000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="41">
@@ -2010,11 +2010,11 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Ngọc Hân 2</t>
+          <t>em Trúc</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2038,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>7000000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="42">
@@ -2048,11 +2048,11 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Lê Thị Nhanh</t>
+          <t>Ngọc Hân 2</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2073,10 +2073,10 @@
         <v/>
       </c>
       <c r="I42" t="n">
-        <v>17500000</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>9500000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="43">
@@ -2086,11 +2086,11 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Tường Vi</t>
+          <t>Lê Thị Nhanh</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2111,10 +2111,10 @@
         <v/>
       </c>
       <c r="I43" t="n">
-        <v>2000000</v>
+        <v>17500000</v>
       </c>
       <c r="J43" t="n">
-        <v>2000000</v>
+        <v>9500000</v>
       </c>
     </row>
     <row r="44">
@@ -2124,11 +2124,11 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Chị Đào</t>
+          <t>Tường Vi</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2149,10 +2149,10 @@
         <v/>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>2000000</v>
       </c>
       <c r="J44" t="n">
-        <v>6000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="45">
@@ -2162,11 +2162,11 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ngọc Hân</t>
+          <t>Chị Đào</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2187,10 +2187,10 @@
         <v/>
       </c>
       <c r="I45" t="n">
-        <v>5000000</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>7000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="46">
@@ -2200,11 +2200,11 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Em Linh</t>
+          <t>Ngọc Hân</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2225,10 +2225,10 @@
         <v/>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>5000000</v>
       </c>
       <c r="J46" t="n">
-        <v>4000000</v>
+        <v>7000000</v>
       </c>
     </row>
     <row r="47">
@@ -2238,36 +2238,74 @@
         </is>
       </c>
       <c r="B47" t="n">
+        <v>42</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Em Linh</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v/>
+      </c>
+      <c r="F47" t="n">
+        <v/>
+      </c>
+      <c r="G47" t="n">
+        <v/>
+      </c>
+      <c r="H47" t="n">
+        <v/>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
         <v>41</v>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>Cẩm Tiên</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E47" t="n">
-        <v/>
-      </c>
-      <c r="F47" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v/>
+      </c>
+      <c r="F48" t="inlineStr">
         <is>
           <t>0901279152</t>
         </is>
       </c>
-      <c r="G47" t="n">
-        <v/>
-      </c>
-      <c r="H47" t="n">
-        <v/>
-      </c>
-      <c r="I47" t="n">
+      <c r="G48" t="n">
+        <v/>
+      </c>
+      <c r="H48" t="n">
+        <v/>
+      </c>
+      <c r="I48" t="n">
         <v>16000000</v>
       </c>
-      <c r="J47" t="n">
+      <c r="J48" t="n">
         <v>2000000</v>
       </c>
     </row>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại CẦN THƠ.xlsx
@@ -585,10 +585,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>11000000</v>
+        <v>12000000</v>
       </c>
       <c r="J4" t="n">
-        <v>7000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="5">
@@ -705,10 +705,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>16000000</v>
+        <v>18000000</v>
       </c>
       <c r="J7" t="n">
-        <v>4000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="8">

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bạch Nhi</t>
+          <t>Nguyễn Thị Như Ý</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -495,8 +495,10 @@
       <c r="E2" t="n">
         <v/>
       </c>
-      <c r="F2" t="n">
-        <v/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0966680674</t>
+        </is>
       </c>
       <c r="G2" t="n">
         <v/>
@@ -505,7 +507,7 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>7000000</v>
+        <v>27000000</v>
       </c>
       <c r="J2" t="n">
         <v>8000000</v>
@@ -518,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -533,10 +535,8 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0787996460</t>
-        </is>
+      <c r="F3" t="n">
+        <v/>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -545,10 +545,10 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>1500000</v>
+        <v>7000000</v>
       </c>
       <c r="J3" t="n">
-        <v>300000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="4">
@@ -558,11 +558,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -575,7 +575,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G4" t="n">
@@ -585,10 +585,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>12000000</v>
+        <v>1500000</v>
       </c>
       <c r="J4" t="n">
-        <v>6000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="5">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -625,10 +625,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>7000000</v>
+        <v>12000000</v>
       </c>
       <c r="J5" t="n">
-        <v>2000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="6">
@@ -638,11 +638,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -665,10 +665,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>15000000</v>
+        <v>7000000</v>
       </c>
       <c r="J6" t="n">
-        <v>5000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="7">
@@ -678,11 +678,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -705,10 +705,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>18000000</v>
+        <v>15000000</v>
       </c>
       <c r="J7" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="8">
@@ -718,11 +718,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -733,8 +733,10 @@
       <c r="E8" t="n">
         <v/>
       </c>
-      <c r="F8" t="n">
-        <v/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G8" t="n">
         <v/>
@@ -743,10 +745,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="J8" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +758,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -781,10 +783,10 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>14600000</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>10400000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="10">
@@ -794,11 +796,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -807,12 +809,10 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F10" t="n">
+        <v/>
       </c>
       <c r="G10" t="n">
         <v/>
@@ -821,10 +821,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>44000000</v>
+        <v>14600000</v>
       </c>
       <c r="J10" t="n">
-        <v>5000000</v>
+        <v>10400000</v>
       </c>
     </row>
     <row r="11">
@@ -834,11 +834,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -847,10 +847,12 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v/>
-      </c>
-      <c r="F11" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -859,10 +861,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>6000000</v>
+        <v>44000000</v>
       </c>
       <c r="J11" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="12">
@@ -872,11 +874,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -887,10 +889,8 @@
       <c r="E12" t="n">
         <v/>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F12" t="n">
+        <v/>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -899,10 +899,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>19000000</v>
+        <v>6000000</v>
       </c>
       <c r="J12" t="n">
-        <v>19000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="13">
@@ -912,11 +912,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -927,8 +927,10 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="n">
-        <v/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -937,10 +939,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>1200000</v>
+        <v>19000000</v>
       </c>
       <c r="J13" t="n">
-        <v>300000</v>
+        <v>19000000</v>
       </c>
     </row>
     <row r="14">
@@ -950,11 +952,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -975,10 +977,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>10300000</v>
+        <v>1200000</v>
       </c>
       <c r="J14" t="n">
-        <v>23500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="15">
@@ -988,11 +990,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1003,10 +1005,8 @@
       <c r="E15" t="n">
         <v/>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F15" t="n">
+        <v/>
       </c>
       <c r="G15" t="n">
         <v/>
@@ -1015,10 +1015,10 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>16500000</v>
+        <v>10300000</v>
       </c>
       <c r="J15" t="n">
-        <v>8500000</v>
+        <v>23500000</v>
       </c>
     </row>
     <row r="16">
@@ -1028,36 +1028,76 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>102</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Nguyễn Thi Thức ( My )</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v/>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v/>
+      </c>
+      <c r="H16" t="n">
+        <v/>
+      </c>
+      <c r="I16" t="n">
+        <v>16500000</v>
+      </c>
+      <c r="J16" t="n">
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
         <v>88</v>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v/>
-      </c>
-      <c r="F16" t="inlineStr">
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v/>
+      </c>
+      <c r="F17" t="inlineStr">
         <is>
           <t>0868277767</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v/>
-      </c>
-      <c r="H16" t="n">
-        <v/>
-      </c>
-      <c r="I16" t="n">
+      <c r="G17" t="n">
+        <v/>
+      </c>
+      <c r="H17" t="n">
+        <v/>
+      </c>
+      <c r="I17" t="n">
         <v>4500000</v>
       </c>
-      <c r="J16" t="n">
+      <c r="J17" t="n">
         <v>10500000</v>
       </c>
     </row>

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại CẦN THƠ.xlsx
@@ -665,10 +665,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>7000000</v>
+        <v>8000000</v>
       </c>
       <c r="J6" t="n">
-        <v>2000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="7">
@@ -821,10 +821,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>14600000</v>
+        <v>18800000</v>
       </c>
       <c r="J10" t="n">
-        <v>10400000</v>
+        <v>6200000</v>
       </c>
     </row>
     <row r="11">
@@ -939,10 +939,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>19000000</v>
+        <v>22000000</v>
       </c>
       <c r="J13" t="n">
-        <v>19000000</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="14">

--- a/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại CẦN THƠ.xlsx
+++ b/Báo cáo/1_CẦN THƠ/Danh sách khách hàng/Danh sách khách hàng còn dư nợ tại CẦN THƠ.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Như Ý</t>
+          <t>Nguyễn Ngọc Hân</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -497,7 +497,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0966680674</t>
+          <t>0587025000</t>
         </is>
       </c>
       <c r="G2" t="n">
@@ -507,10 +507,10 @@
         <v/>
       </c>
       <c r="I2" t="n">
-        <v>27000000</v>
+        <v>8500000</v>
       </c>
       <c r="J2" t="n">
-        <v>8000000</v>
+        <v>12000000</v>
       </c>
     </row>
     <row r="3">
@@ -520,11 +520,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Bạch Nhi</t>
+          <t>Nguyễn Thị Như Ý</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -535,8 +535,10 @@
       <c r="E3" t="n">
         <v/>
       </c>
-      <c r="F3" t="n">
-        <v/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0966680674</t>
+        </is>
       </c>
       <c r="G3" t="n">
         <v/>
@@ -545,7 +547,7 @@
         <v/>
       </c>
       <c r="I3" t="n">
-        <v>7000000</v>
+        <v>27000000</v>
       </c>
       <c r="J3" t="n">
         <v>8000000</v>
@@ -558,11 +560,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nguyễn Phương Thuý</t>
+          <t>Bạch Nhi</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -573,10 +575,8 @@
       <c r="E4" t="n">
         <v/>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0787996460</t>
-        </is>
+      <c r="F4" t="n">
+        <v/>
       </c>
       <c r="G4" t="n">
         <v/>
@@ -585,10 +585,10 @@
         <v/>
       </c>
       <c r="I4" t="n">
-        <v>1500000</v>
+        <v>7000000</v>
       </c>
       <c r="J4" t="n">
-        <v>300000</v>
+        <v>8000000</v>
       </c>
     </row>
     <row r="5">
@@ -598,11 +598,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ngô Xuân Nhi</t>
+          <t>Nguyễn Phương Thuý</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0868883621</t>
+          <t>0787996460</t>
         </is>
       </c>
       <c r="G5" t="n">
@@ -625,10 +625,10 @@
         <v/>
       </c>
       <c r="I5" t="n">
-        <v>12000000</v>
+        <v>1500000</v>
       </c>
       <c r="J5" t="n">
-        <v>6000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="6">
@@ -638,11 +638,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>222</v>
+        <v>335</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Phan Yến Nhi</t>
+          <t>Ngô Xuân Nhi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0799675368</t>
+          <t>0868883621</t>
         </is>
       </c>
       <c r="G6" t="n">
@@ -665,10 +665,10 @@
         <v/>
       </c>
       <c r="I6" t="n">
-        <v>8000000</v>
+        <v>12000000</v>
       </c>
       <c r="J6" t="n">
-        <v>1000000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="7">
@@ -678,11 +678,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>205</v>
+        <v>222</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Trần Thị Cẩm Hồng</t>
+          <t>Phan Yến Nhi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -695,7 +695,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0939773382</t>
+          <t>0799675368</t>
         </is>
       </c>
       <c r="G7" t="n">
@@ -705,10 +705,10 @@
         <v/>
       </c>
       <c r="I7" t="n">
-        <v>15000000</v>
+        <v>8000000</v>
       </c>
       <c r="J7" t="n">
-        <v>5000000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="8">
@@ -718,11 +718,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Mai Bảo Thi</t>
+          <t>Trần Thị Cẩm Hồng</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -735,7 +735,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>0982030044</t>
+          <t>0939773382</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -745,10 +745,10 @@
         <v/>
       </c>
       <c r="I8" t="n">
-        <v>18000000</v>
+        <v>15000000</v>
       </c>
       <c r="J8" t="n">
-        <v>2000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="9">
@@ -758,11 +758,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Kim Ngân</t>
+          <t>Mai Bảo Thi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -773,8 +773,10 @@
       <c r="E9" t="n">
         <v/>
       </c>
-      <c r="F9" t="n">
-        <v/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0982030044</t>
+        </is>
       </c>
       <c r="G9" t="n">
         <v/>
@@ -783,10 +785,10 @@
         <v/>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>18000000</v>
       </c>
       <c r="J9" t="n">
-        <v>3000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="10">
@@ -796,11 +798,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Phạm Thanh Tiến</t>
+          <t>Kim Ngân</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -821,10 +823,10 @@
         <v/>
       </c>
       <c r="I10" t="n">
-        <v>18800000</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>6200000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="11">
@@ -834,11 +836,11 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Quỳnh Như</t>
+          <t>Phạm Thanh Tiến</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -847,12 +849,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>89197014107</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0822323252</t>
-        </is>
+        <v/>
+      </c>
+      <c r="F11" t="n">
+        <v/>
       </c>
       <c r="G11" t="n">
         <v/>
@@ -861,10 +861,10 @@
         <v/>
       </c>
       <c r="I11" t="n">
-        <v>44000000</v>
+        <v>18800000</v>
       </c>
       <c r="J11" t="n">
-        <v>5000000</v>
+        <v>6200000</v>
       </c>
     </row>
     <row r="12">
@@ -874,11 +874,11 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>hoài hưng</t>
+          <t>Nguyễn Thị Quỳnh Như</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -887,10 +887,12 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v/>
-      </c>
-      <c r="F12" t="n">
-        <v/>
+        <v>89197014107</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0822323252</t>
+        </is>
       </c>
       <c r="G12" t="n">
         <v/>
@@ -899,10 +901,10 @@
         <v/>
       </c>
       <c r="I12" t="n">
-        <v>6000000</v>
+        <v>44000000</v>
       </c>
       <c r="J12" t="n">
-        <v>15000000</v>
+        <v>5000000</v>
       </c>
     </row>
     <row r="13">
@@ -912,11 +914,11 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Duyên</t>
+          <t>hoài hưng</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -927,10 +929,8 @@
       <c r="E13" t="n">
         <v/>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>0767509572</t>
-        </is>
+      <c r="F13" t="n">
+        <v/>
       </c>
       <c r="G13" t="n">
         <v/>
@@ -939,10 +939,10 @@
         <v/>
       </c>
       <c r="I13" t="n">
-        <v>22000000</v>
+        <v>6000000</v>
       </c>
       <c r="J13" t="n">
-        <v>16000000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="14">
@@ -952,11 +952,11 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>chị Bỉ</t>
+          <t>Nguyễn Thị Duyên</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -967,8 +967,10 @@
       <c r="E14" t="n">
         <v/>
       </c>
-      <c r="F14" t="n">
-        <v/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0767509572</t>
+        </is>
       </c>
       <c r="G14" t="n">
         <v/>
@@ -977,10 +979,10 @@
         <v/>
       </c>
       <c r="I14" t="n">
-        <v>1200000</v>
+        <v>22000000</v>
       </c>
       <c r="J14" t="n">
-        <v>300000</v>
+        <v>16000000</v>
       </c>
     </row>
     <row r="15">
@@ -990,11 +992,11 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Nguyễn Thị Hồng Trang</t>
+          <t>chị Bỉ</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1015,10 +1017,10 @@
         <v/>
       </c>
       <c r="I15" t="n">
-        <v>10300000</v>
+        <v>1200000</v>
       </c>
       <c r="J15" t="n">
-        <v>23500000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="16">
@@ -1028,11 +1030,11 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Nguyễn Thi Thức ( My )</t>
+          <t>Nguyễn Thị Hồng Trang</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1043,10 +1045,8 @@
       <c r="E16" t="n">
         <v/>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>0332812716</t>
-        </is>
+      <c r="F16" t="n">
+        <v/>
       </c>
       <c r="G16" t="n">
         <v/>
@@ -1055,10 +1055,10 @@
         <v/>
       </c>
       <c r="I16" t="n">
-        <v>16500000</v>
+        <v>10300000</v>
       </c>
       <c r="J16" t="n">
-        <v>8500000</v>
+        <v>23500000</v>
       </c>
     </row>
     <row r="17">
@@ -1068,36 +1068,76 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>102</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Nguyễn Thi Thức ( My )</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v/>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0332812716</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v/>
+      </c>
+      <c r="H17" t="n">
+        <v/>
+      </c>
+      <c r="I17" t="n">
+        <v>16500000</v>
+      </c>
+      <c r="J17" t="n">
+        <v>8500000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>KH</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
         <v>88</v>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>Trần Nguyễn Sang Sang</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>CẦN THƠ</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v/>
-      </c>
-      <c r="F17" t="inlineStr">
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CẦN THƠ</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v/>
+      </c>
+      <c r="F18" t="inlineStr">
         <is>
           <t>0868277767</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v/>
-      </c>
-      <c r="H17" t="n">
-        <v/>
-      </c>
-      <c r="I17" t="n">
+      <c r="G18" t="n">
+        <v/>
+      </c>
+      <c r="H18" t="n">
+        <v/>
+      </c>
+      <c r="I18" t="n">
         <v>4500000</v>
       </c>
-      <c r="J17" t="n">
+      <c r="J18" t="n">
         <v>10500000</v>
       </c>
     </row>
